--- a/Complete-spreadsheets/EC/Cz-list-EC.xlsx
+++ b/Complete-spreadsheets/EC/Cz-list-EC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2DF17A-1DFD-45AA-BE19-5014F5730110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689627A0-C93E-4454-9097-565CF10EA523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L47"/>
+      <selection activeCell="A24" sqref="A24:L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,23 +496,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>19.898069386959008</v>
-      </c>
-      <c r="C2" s="3">
-        <v>24.550092302472979</v>
-      </c>
-      <c r="D2" s="3">
-        <v>24.309741643892469</v>
-      </c>
-      <c r="E2" s="3">
-        <v>5.8240885523926504</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.9641369272405931</v>
+      <c r="B2" s="4">
+        <v>6.6006865594315141</v>
+      </c>
+      <c r="C2" s="4">
+        <v>21.743239790648829</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.7543173501507283</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.96937195555194</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.4894687293943658</v>
       </c>
       <c r="G2">
-        <v>76.546128812957676</v>
+        <v>38.55708438517739</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -534,23 +534,23 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
-        <v>19.89839903654817</v>
-      </c>
-      <c r="C3" s="3">
-        <v>8.0225650900531722</v>
-      </c>
-      <c r="D3" s="3">
-        <v>18.424102347094109</v>
-      </c>
-      <c r="E3" s="3">
-        <v>6.3700929354599403</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.1345141059165962</v>
+      <c r="B3" s="4">
+        <v>13.82818176515377</v>
+      </c>
+      <c r="C3" s="4">
+        <v>12.723558976239079</v>
+      </c>
+      <c r="D3" s="4">
+        <v>13.631457380874281</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4.6462183882110786</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.6806221583666452</v>
       </c>
       <c r="G3">
-        <v>54.849673515071999</v>
+        <v>47.510038668844857</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -559,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -573,22 +573,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="4">
-        <v>6.6006865594315141</v>
+        <v>12.031663002276041</v>
       </c>
       <c r="C4" s="4">
-        <v>21.743239790648829</v>
+        <v>27.456506606870281</v>
       </c>
       <c r="D4" s="4">
-        <v>4.7543173501507283</v>
+        <v>8.9327042090377429</v>
       </c>
       <c r="E4" s="4">
-        <v>2.96937195555194</v>
+        <v>3.9374342529595361</v>
       </c>
       <c r="F4" s="4">
-        <v>2.4894687293943658</v>
+        <v>2.9349483110838741</v>
       </c>
       <c r="G4">
-        <v>38.55708438517739</v>
+        <v>55.293256382227497</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -611,22 +611,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="4">
-        <v>13.82818176515377</v>
+        <v>113.77642198532401</v>
       </c>
       <c r="C5" s="4">
-        <v>12.723558976239079</v>
+        <v>34.002260573512487</v>
       </c>
       <c r="D5" s="4">
-        <v>13.631457380874281</v>
+        <v>22.775127415939391</v>
       </c>
       <c r="E5" s="4">
-        <v>4.6462183882110786</v>
+        <v>6.2380954164482478</v>
       </c>
       <c r="F5" s="4">
-        <v>2.6806221583666452</v>
+        <v>3.0812848668679731</v>
       </c>
       <c r="G5">
-        <v>47.510038668844857</v>
+        <v>179.87319025809211</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -649,22 +649,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>12.031663002276041</v>
+        <v>25.019088773717499</v>
       </c>
       <c r="C6" s="4">
-        <v>27.456506606870281</v>
+        <v>16.168417813572969</v>
       </c>
       <c r="D6" s="4">
-        <v>8.9327042090377429</v>
+        <v>8.5951176177377917</v>
       </c>
       <c r="E6" s="4">
-        <v>3.9374342529595361</v>
+        <v>3.6962728734071568</v>
       </c>
       <c r="F6" s="4">
-        <v>2.9349483110838741</v>
+        <v>3.0942672765382109</v>
       </c>
       <c r="G6">
-        <v>55.293256382227497</v>
+        <v>56.573164354973628</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -687,22 +687,22 @@
         <v>9</v>
       </c>
       <c r="B7" s="4">
-        <v>113.77642198532401</v>
+        <v>42.331050140066097</v>
       </c>
       <c r="C7" s="4">
-        <v>34.002260573512487</v>
+        <v>12.66120450085929</v>
       </c>
       <c r="D7" s="4">
-        <v>22.775127415939391</v>
+        <v>8.8758683156940101</v>
       </c>
       <c r="E7" s="4">
-        <v>6.2380954164482478</v>
+        <v>5.7948015119432039</v>
       </c>
       <c r="F7" s="4">
-        <v>3.0812848668679731</v>
+        <v>3.2374404276447848</v>
       </c>
       <c r="G7">
-        <v>179.87319025809211</v>
+        <v>72.900364896207378</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -725,22 +725,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="4">
-        <v>25.019088773717499</v>
+        <v>7.3888013719282117</v>
       </c>
       <c r="C8" s="4">
-        <v>16.168417813572969</v>
+        <v>18.03167292083285</v>
       </c>
       <c r="D8" s="4">
-        <v>8.5951176177377917</v>
+        <v>6.4162059166300356</v>
       </c>
       <c r="E8" s="4">
-        <v>3.6962728734071568</v>
+        <v>2.926998204524466</v>
       </c>
       <c r="F8" s="4">
-        <v>3.0942672765382109</v>
+        <v>3.4914029777887521</v>
       </c>
       <c r="G8">
-        <v>56.573164354973628</v>
+        <v>38.255081391704309</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -763,22 +763,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>42.331050140066097</v>
+        <v>39.62628745156205</v>
       </c>
       <c r="C9" s="4">
-        <v>12.66120450085929</v>
+        <v>15.34908648885669</v>
       </c>
       <c r="D9" s="4">
-        <v>8.8758683156940101</v>
+        <v>23.6005439916275</v>
       </c>
       <c r="E9" s="4">
-        <v>5.7948015119432039</v>
+        <v>4.8036396788881888</v>
       </c>
       <c r="F9" s="4">
-        <v>3.2374404276447848</v>
+        <v>3.689827532837894</v>
       </c>
       <c r="G9">
-        <v>72.900364896207378</v>
+        <v>87.069385143772337</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -800,23 +800,23 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>9.9708937410945868</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10.530711721168959</v>
-      </c>
-      <c r="D10" s="3">
-        <v>16.97119228236242</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4.8034862200207566</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.4596823040696951</v>
+      <c r="B10" s="4">
+        <v>35.949833805661562</v>
+      </c>
+      <c r="C10" s="4">
+        <v>24.065680776494819</v>
+      </c>
+      <c r="D10" s="4">
+        <v>71.722581288278377</v>
+      </c>
+      <c r="E10" s="4">
+        <v>7.3947128513960063</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.7299631355635552</v>
       </c>
       <c r="G10">
-        <v>45.735966268716417</v>
+        <v>142.86277185739431</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
@@ -839,22 +839,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>7.3888013719282117</v>
+        <v>31.036321905157919</v>
       </c>
       <c r="C11" s="4">
-        <v>18.03167292083285</v>
+        <v>15.17552219245816</v>
       </c>
       <c r="D11" s="4">
-        <v>6.4162059166300356</v>
+        <v>17.08634215872285</v>
       </c>
       <c r="E11" s="4">
-        <v>2.926998204524466</v>
+        <v>5.4843910967920886</v>
       </c>
       <c r="F11" s="4">
-        <v>3.4914029777887521</v>
+        <v>3.773631739311754</v>
       </c>
       <c r="G11">
-        <v>38.255081391704309</v>
+        <v>72.556209092442771</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -880,22 +880,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>39.62628745156205</v>
+        <v>33.796665927121367</v>
       </c>
       <c r="C12" s="4">
-        <v>15.34908648885669</v>
+        <v>21.477569416988249</v>
       </c>
       <c r="D12" s="4">
-        <v>23.6005439916275</v>
+        <v>88.508962451389337</v>
       </c>
       <c r="E12" s="4">
-        <v>4.8036396788881888</v>
+        <v>9.0047232909749368</v>
       </c>
       <c r="F12" s="4">
-        <v>3.689827532837894</v>
+        <v>3.832843776640896</v>
       </c>
       <c r="G12">
-        <v>87.069385143772337</v>
+        <v>156.6207648631148</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -921,22 +921,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>35.949833805661562</v>
+        <v>33.061267361554847</v>
       </c>
       <c r="C13" s="4">
-        <v>24.065680776494819</v>
+        <v>36.717147142090766</v>
       </c>
       <c r="D13" s="4">
-        <v>71.722581288278377</v>
+        <v>44.267236066996063</v>
       </c>
       <c r="E13" s="4">
-        <v>7.3947128513960063</v>
+        <v>6.6359176719217672</v>
       </c>
       <c r="F13" s="4">
-        <v>3.7299631355635552</v>
+        <v>4.0109252065443526</v>
       </c>
       <c r="G13">
-        <v>142.86277185739431</v>
+        <v>124.6924934491078</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="4">
-        <v>31.036321905157919</v>
+        <v>5.4005841044849916</v>
       </c>
       <c r="C14" s="4">
-        <v>15.17552219245816</v>
+        <v>29.646435499440649</v>
       </c>
       <c r="D14" s="4">
-        <v>17.08634215872285</v>
+        <v>24.885859365576749</v>
       </c>
       <c r="E14" s="4">
-        <v>5.4843910967920886</v>
+        <v>5.5569478903989022</v>
       </c>
       <c r="F14" s="4">
-        <v>3.773631739311754</v>
+        <v>4.4471419679520876</v>
       </c>
       <c r="G14">
-        <v>72.556209092442771</v>
+        <v>69.936968827853363</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -997,22 +997,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="4">
-        <v>33.796665927121367</v>
+        <v>48.625796280048412</v>
       </c>
       <c r="C15" s="4">
-        <v>21.477569416988249</v>
+        <v>19.048555665635138</v>
       </c>
       <c r="D15" s="4">
-        <v>88.508962451389337</v>
+        <v>36.604290189119943</v>
       </c>
       <c r="E15" s="4">
-        <v>9.0047232909749368</v>
+        <v>7.5136752295014091</v>
       </c>
       <c r="F15" s="4">
-        <v>3.832843776640896</v>
+        <v>4.479724503553852</v>
       </c>
       <c r="G15">
-        <v>156.6207648631148</v>
+        <v>116.2720418678587</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -1034,23 +1034,23 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3">
-        <v>13.28280172031989</v>
-      </c>
-      <c r="C16" s="3">
-        <v>8.67332232386158</v>
-      </c>
-      <c r="D16" s="3">
-        <v>12.831343037400501</v>
-      </c>
-      <c r="E16" s="3">
-        <v>6.9287844982522753</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3.843675180486946</v>
+      <c r="B16" s="4">
+        <v>30.49432354642747</v>
+      </c>
+      <c r="C16" s="4">
+        <v>13.69263295203149</v>
+      </c>
+      <c r="D16" s="4">
+        <v>19.33370483125978</v>
+      </c>
+      <c r="E16" s="4">
+        <v>11.60012641709103</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4.8535506687343251</v>
       </c>
       <c r="G16">
-        <v>45.55992676032119</v>
+        <v>79.974338415544082</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>12</v>
@@ -1073,22 +1073,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>33.061267361554847</v>
+        <v>7.3157872234537979</v>
       </c>
       <c r="C17" s="4">
-        <v>36.717147142090766</v>
+        <v>28.862948097598618</v>
       </c>
       <c r="D17" s="4">
-        <v>44.267236066996063</v>
+        <v>20.55659935718624</v>
       </c>
       <c r="E17" s="4">
-        <v>6.6359176719217672</v>
+        <v>6.5047294175228894</v>
       </c>
       <c r="F17" s="4">
-        <v>4.0109252065443526</v>
+        <v>5.0656492974503804</v>
       </c>
       <c r="G17">
-        <v>124.6924934491078</v>
+        <v>68.305713393211931</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -1111,22 +1111,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>5.4005841044849916</v>
+        <v>77.016664176063188</v>
       </c>
       <c r="C18" s="4">
-        <v>29.646435499440649</v>
+        <v>58.257435187540587</v>
       </c>
       <c r="D18" s="4">
-        <v>24.885859365576749</v>
+        <v>10.19663685249199</v>
       </c>
       <c r="E18" s="4">
-        <v>5.5569478903989022</v>
+        <v>7.8062896553507883</v>
       </c>
       <c r="F18" s="4">
-        <v>4.4471419679520876</v>
+        <v>5.2846794691215671</v>
       </c>
       <c r="G18">
-        <v>69.936968827853363</v>
+        <v>158.5617053405681</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -1148,23 +1148,23 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="3">
-        <v>34.873926369218402</v>
-      </c>
-      <c r="C19" s="3">
-        <v>36.44937731175483</v>
-      </c>
-      <c r="D19" s="3">
-        <v>34.427245827626201</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5.9963808831292091</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4.4485859217330486</v>
+      <c r="B19" s="4">
+        <v>9.1841310266003955</v>
+      </c>
+      <c r="C19" s="4">
+        <v>46.599037100440427</v>
+      </c>
+      <c r="D19" s="4">
+        <v>17.34686176757204</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4.2526921845650421</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5.3743582894893862</v>
       </c>
       <c r="G19">
-        <v>116.1955163134617</v>
+        <v>82.757080368667289</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1173,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>22</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>12</v>
@@ -1187,22 +1187,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="4">
-        <v>48.625796280048412</v>
+        <v>43.432522689355856</v>
       </c>
       <c r="C20" s="4">
-        <v>19.048555665635138</v>
+        <v>31.825480232849898</v>
       </c>
       <c r="D20" s="4">
-        <v>36.604290189119943</v>
+        <v>99.942875990044485</v>
       </c>
       <c r="E20" s="4">
-        <v>7.5136752295014091</v>
+        <v>16.485856422298411</v>
       </c>
       <c r="F20" s="4">
-        <v>4.479724503553852</v>
+        <v>6.2824368029180029</v>
       </c>
       <c r="G20">
-        <v>116.2720418678587</v>
+        <v>197.9691721374667</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -1224,23 +1224,23 @@
       <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="3">
-        <v>15.366943953203711</v>
-      </c>
-      <c r="C21" s="3">
-        <v>9.8574091896584903</v>
-      </c>
-      <c r="D21" s="3">
-        <v>44.213115535542798</v>
-      </c>
-      <c r="E21" s="3">
-        <v>13.60297993724976</v>
-      </c>
-      <c r="F21" s="3">
-        <v>4.4843244583945534</v>
+      <c r="B21" s="4">
+        <v>7.157785083651854</v>
+      </c>
+      <c r="C21" s="4">
+        <v>42.366945688650297</v>
+      </c>
+      <c r="D21" s="4">
+        <v>23.425633551979139</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5.5487093270643708</v>
+      </c>
+      <c r="F21" s="4">
+        <v>6.3072939110531756</v>
       </c>
       <c r="G21">
-        <v>87.524773074049293</v>
+        <v>84.806367562398833</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
       </c>
       <c r="L21" t="s">
         <v>12</v>
@@ -1262,23 +1262,23 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3">
-        <v>27.906409081631569</v>
-      </c>
-      <c r="C22" s="3">
-        <v>32.372050053040489</v>
-      </c>
-      <c r="D22" s="3">
-        <v>198.41126705482779</v>
-      </c>
-      <c r="E22" s="3">
-        <v>15.45847447655607</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4.5226188545399708</v>
+      <c r="B22" s="4">
+        <v>13.471003365595241</v>
+      </c>
+      <c r="C22" s="4">
+        <v>70.913194725987083</v>
+      </c>
+      <c r="D22" s="4">
+        <v>35.26449306582164</v>
+      </c>
+      <c r="E22" s="4">
+        <v>9.6236668463718971</v>
+      </c>
+      <c r="F22" s="4">
+        <v>13.08898501294731</v>
       </c>
       <c r="G22">
-        <v>278.6708195205959</v>
+        <v>142.36134301672311</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1287,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>23</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>12</v>
@@ -1300,23 +1300,23 @@
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="3">
-        <v>42.053152754370849</v>
-      </c>
-      <c r="C23" s="3">
-        <v>8.7166223367953304</v>
-      </c>
-      <c r="D23" s="3">
-        <v>8.6680565072760256</v>
-      </c>
-      <c r="E23" s="3">
-        <v>7.7703879900708888</v>
-      </c>
-      <c r="F23" s="3">
-        <v>4.5547233375897704</v>
+      <c r="B23" s="4">
+        <v>2590.4869589748541</v>
+      </c>
+      <c r="C23" s="4">
+        <v>169.7207471260628</v>
+      </c>
+      <c r="D23" s="4">
+        <v>104.93377137794511</v>
+      </c>
+      <c r="E23" s="4">
+        <v>187.55771657536741</v>
+      </c>
+      <c r="F23" s="4">
+        <v>377.86311274465407</v>
       </c>
       <c r="G23">
-        <v>71.762942926102866</v>
+        <v>3430.5623067988831</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1325,10 +1325,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>24</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>12</v>
@@ -1339,22 +1339,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3">
-        <v>16.494633920667919</v>
+        <v>19.898069386959008</v>
       </c>
       <c r="C24" s="3">
-        <v>7.9719646364789014</v>
+        <v>24.550092302472979</v>
       </c>
       <c r="D24" s="3">
-        <v>3.3787945452099439</v>
+        <v>24.309741643892469</v>
       </c>
       <c r="E24" s="3">
-        <v>9.518753708378874</v>
+        <v>5.8240885523926504</v>
       </c>
       <c r="F24" s="3">
-        <v>4.6317651378479958</v>
+        <v>1.9641369272405931</v>
       </c>
       <c r="G24">
-        <v>41.995911948583633</v>
+        <v>76.546128812957676</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -1376,23 +1376,23 @@
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="4">
-        <v>30.49432354642747</v>
-      </c>
-      <c r="C25" s="4">
-        <v>13.69263295203149</v>
-      </c>
-      <c r="D25" s="4">
-        <v>19.33370483125978</v>
-      </c>
-      <c r="E25" s="4">
-        <v>11.60012641709103</v>
-      </c>
-      <c r="F25" s="4">
-        <v>4.8535506687343251</v>
+      <c r="B25" s="3">
+        <v>19.89839903654817</v>
+      </c>
+      <c r="C25" s="3">
+        <v>8.0225650900531722</v>
+      </c>
+      <c r="D25" s="3">
+        <v>18.424102347094109</v>
+      </c>
+      <c r="E25" s="3">
+        <v>6.3700929354599403</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2.1345141059165962</v>
       </c>
       <c r="G25">
-        <v>79.974338415544082</v>
+        <v>54.849673515071999</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
       </c>
       <c r="L25" t="s">
         <v>12</v>
@@ -1415,22 +1415,22 @@
         <v>9</v>
       </c>
       <c r="B26" s="3">
-        <v>8.8391652019098181</v>
+        <v>9.9708937410945868</v>
       </c>
       <c r="C26" s="3">
-        <v>5.5750005504896842</v>
+        <v>10.530711721168959</v>
       </c>
       <c r="D26" s="3">
-        <v>19.500651849237389</v>
+        <v>16.97119228236242</v>
       </c>
       <c r="E26" s="3">
-        <v>13.21575935333623</v>
+        <v>4.8034862200207566</v>
       </c>
       <c r="F26" s="3">
-        <v>5.0077196703385001</v>
+        <v>3.4596823040696951</v>
       </c>
       <c r="G26">
-        <v>52.138296625311611</v>
+        <v>45.735966268716417</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K26" s="3">
         <v>1</v>
@@ -1452,23 +1452,23 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4">
-        <v>7.3157872234537979</v>
-      </c>
-      <c r="C27" s="4">
-        <v>28.862948097598618</v>
-      </c>
-      <c r="D27" s="4">
-        <v>20.55659935718624</v>
-      </c>
-      <c r="E27" s="4">
-        <v>6.5047294175228894</v>
-      </c>
-      <c r="F27" s="4">
-        <v>5.0656492974503804</v>
+      <c r="B27" s="3">
+        <v>13.28280172031989</v>
+      </c>
+      <c r="C27" s="3">
+        <v>8.67332232386158</v>
+      </c>
+      <c r="D27" s="3">
+        <v>12.831343037400501</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6.9287844982522753</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3.843675180486946</v>
       </c>
       <c r="G27">
-        <v>68.305713393211931</v>
+        <v>45.55992676032119</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1477,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>13</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>12</v>
@@ -1491,22 +1491,22 @@
         <v>9</v>
       </c>
       <c r="B28" s="3">
-        <v>15.49233801039588</v>
+        <v>34.873926369218402</v>
       </c>
       <c r="C28" s="3">
-        <v>12.8868019665377</v>
+        <v>36.44937731175483</v>
       </c>
       <c r="D28" s="3">
-        <v>35.727428489402797</v>
+        <v>34.427245827626201</v>
       </c>
       <c r="E28" s="3">
-        <v>7.1905293598115136</v>
+        <v>5.9963808831292091</v>
       </c>
       <c r="F28" s="3">
-        <v>5.1745880927133463</v>
+        <v>4.4485859217330486</v>
       </c>
       <c r="G28">
-        <v>76.471685918861255</v>
+        <v>116.1955163134617</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="K28" s="3">
         <v>1</v>
@@ -1528,23 +1528,23 @@
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="4">
-        <v>77.016664176063188</v>
-      </c>
-      <c r="C29" s="4">
-        <v>58.257435187540587</v>
-      </c>
-      <c r="D29" s="4">
-        <v>10.19663685249199</v>
-      </c>
-      <c r="E29" s="4">
-        <v>7.8062896553507883</v>
-      </c>
-      <c r="F29" s="4">
-        <v>5.2846794691215671</v>
+      <c r="B29" s="3">
+        <v>15.366943953203711</v>
+      </c>
+      <c r="C29" s="3">
+        <v>9.8574091896584903</v>
+      </c>
+      <c r="D29" s="3">
+        <v>44.213115535542798</v>
+      </c>
+      <c r="E29" s="3">
+        <v>13.60297993724976</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4.4843244583945534</v>
       </c>
       <c r="G29">
-        <v>158.5617053405681</v>
+        <v>87.524773074049293</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1553,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>9</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>12</v>
@@ -1566,23 +1566,23 @@
       <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="4">
-        <v>9.1841310266003955</v>
-      </c>
-      <c r="C30" s="4">
-        <v>46.599037100440427</v>
-      </c>
-      <c r="D30" s="4">
-        <v>17.34686176757204</v>
-      </c>
-      <c r="E30" s="4">
-        <v>4.2526921845650421</v>
-      </c>
-      <c r="F30" s="4">
-        <v>5.3743582894893862</v>
+      <c r="B30" s="3">
+        <v>27.906409081631569</v>
+      </c>
+      <c r="C30" s="3">
+        <v>32.372050053040489</v>
+      </c>
+      <c r="D30" s="3">
+        <v>198.41126705482779</v>
+      </c>
+      <c r="E30" s="3">
+        <v>15.45847447655607</v>
+      </c>
+      <c r="F30" s="3">
+        <v>4.5226188545399708</v>
       </c>
       <c r="G30">
-        <v>82.757080368667289</v>
+        <v>278.6708195205959</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>24</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>12</v>
@@ -1605,22 +1605,22 @@
         <v>9</v>
       </c>
       <c r="B31" s="3">
-        <v>11.221458281778339</v>
+        <v>42.053152754370849</v>
       </c>
       <c r="C31" s="3">
-        <v>22.13555372701201</v>
+        <v>8.7166223367953304</v>
       </c>
       <c r="D31" s="3">
-        <v>61.896200537775982</v>
+        <v>8.6680565072760256</v>
       </c>
       <c r="E31" s="3">
-        <v>25.532398859086811</v>
+        <v>7.7703879900708888</v>
       </c>
       <c r="F31" s="3">
-        <v>5.8880959346095567</v>
+        <v>4.5547233375897704</v>
       </c>
       <c r="G31">
-        <v>126.67370734026269</v>
+        <v>71.762942926102866</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K31" s="3">
         <v>1</v>
@@ -1642,23 +1642,23 @@
       <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="4">
-        <v>43.432522689355856</v>
-      </c>
-      <c r="C32" s="4">
-        <v>31.825480232849898</v>
-      </c>
-      <c r="D32" s="4">
-        <v>99.942875990044485</v>
-      </c>
-      <c r="E32" s="4">
-        <v>16.485856422298411</v>
-      </c>
-      <c r="F32" s="4">
-        <v>6.2824368029180029</v>
+      <c r="B32" s="3">
+        <v>16.494633920667919</v>
+      </c>
+      <c r="C32" s="3">
+        <v>7.9719646364789014</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3.3787945452099439</v>
+      </c>
+      <c r="E32" s="3">
+        <v>9.518753708378874</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4.6317651378479958</v>
       </c>
       <c r="G32">
-        <v>197.9691721374667</v>
+        <v>41.995911948583633</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1667,10 +1667,10 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>11</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
       </c>
       <c r="L32" t="s">
         <v>12</v>
@@ -1680,23 +1680,23 @@
       <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="4">
-        <v>7.157785083651854</v>
-      </c>
-      <c r="C33" s="4">
-        <v>42.366945688650297</v>
-      </c>
-      <c r="D33" s="4">
-        <v>23.425633551979139</v>
-      </c>
-      <c r="E33" s="4">
-        <v>5.5487093270643708</v>
-      </c>
-      <c r="F33" s="4">
-        <v>6.3072939110531756</v>
+      <c r="B33" s="3">
+        <v>8.8391652019098181</v>
+      </c>
+      <c r="C33" s="3">
+        <v>5.5750005504896842</v>
+      </c>
+      <c r="D33" s="3">
+        <v>19.500651849237389</v>
+      </c>
+      <c r="E33" s="3">
+        <v>13.21575935333623</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5.0077196703385001</v>
       </c>
       <c r="G33">
-        <v>84.806367562398833</v>
+        <v>52.138296625311611</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1705,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>6</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
       </c>
       <c r="L33" t="s">
         <v>12</v>
@@ -1719,22 +1719,22 @@
         <v>9</v>
       </c>
       <c r="B34" s="3">
-        <v>377.12410877093077</v>
+        <v>15.49233801039588</v>
       </c>
       <c r="C34" s="3">
-        <v>97.664888433696163</v>
+        <v>12.8868019665377</v>
       </c>
       <c r="D34" s="3">
-        <v>32.161998064072989</v>
+        <v>35.727428489402797</v>
       </c>
       <c r="E34" s="3">
-        <v>13.94057625070718</v>
+        <v>7.1905293598115136</v>
       </c>
       <c r="F34" s="3">
-        <v>7.0124008052287303</v>
+        <v>5.1745880927133463</v>
       </c>
       <c r="G34">
-        <v>527.9039723246359</v>
+        <v>76.471685918861255</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="K34" s="3">
         <v>1</v>
@@ -1757,22 +1757,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>201.5720259334895</v>
+        <v>11.221458281778339</v>
       </c>
       <c r="C35" s="3">
-        <v>13.807945405414859</v>
+        <v>22.13555372701201</v>
       </c>
       <c r="D35" s="3">
-        <v>59.001366748849527</v>
+        <v>61.896200537775982</v>
       </c>
       <c r="E35" s="3">
-        <v>21.545375532836921</v>
+        <v>25.532398859086811</v>
       </c>
       <c r="F35" s="3">
-        <v>9.271817336536964</v>
+        <v>5.8880959346095567</v>
       </c>
       <c r="G35">
-        <v>305.19853095712779</v>
+        <v>126.67370734026269</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1795,22 +1795,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="3">
-        <v>21.434362030647112</v>
+        <v>377.12410877093077</v>
       </c>
       <c r="C36" s="3">
-        <v>38.783206684472468</v>
+        <v>97.664888433696163</v>
       </c>
       <c r="D36" s="3">
-        <v>15.88895794930872</v>
+        <v>32.161998064072989</v>
       </c>
       <c r="E36" s="3">
-        <v>11.38164431455751</v>
+        <v>13.94057625070718</v>
       </c>
       <c r="F36" s="3">
-        <v>10.43665007594292</v>
+        <v>7.0124008052287303</v>
       </c>
       <c r="G36">
-        <v>97.924821054928728</v>
+        <v>527.9039723246359</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -1833,22 +1833,22 @@
         <v>9</v>
       </c>
       <c r="B37" s="3">
-        <v>1632.343299376249</v>
+        <v>201.5720259334895</v>
       </c>
       <c r="C37" s="3">
-        <v>286.22431288587842</v>
+        <v>13.807945405414859</v>
       </c>
       <c r="D37" s="3">
-        <v>46.753164175450337</v>
+        <v>59.001366748849527</v>
       </c>
       <c r="E37" s="3">
-        <v>22.453654707431749</v>
+        <v>21.545375532836921</v>
       </c>
       <c r="F37" s="3">
-        <v>11.404361833529739</v>
+        <v>9.271817336536964</v>
       </c>
       <c r="G37">
-        <v>1999.1787929785401</v>
+        <v>305.19853095712779</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -1871,22 +1871,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="3">
-        <v>18.83732939249856</v>
+        <v>21.434362030647112</v>
       </c>
       <c r="C38" s="3">
-        <v>9.1927851278072552</v>
+        <v>38.783206684472468</v>
       </c>
       <c r="D38" s="3">
-        <v>11.522767565521351</v>
+        <v>15.88895794930872</v>
       </c>
       <c r="E38" s="3">
-        <v>19.7978089342309</v>
+        <v>11.38164431455751</v>
       </c>
       <c r="F38" s="3">
-        <v>11.510567525327501</v>
+        <v>10.43665007594292</v>
       </c>
       <c r="G38">
-        <v>70.861258545385553</v>
+        <v>97.924821054928728</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -1909,22 +1909,22 @@
         <v>9</v>
       </c>
       <c r="B39" s="3">
-        <v>59.49392956351322</v>
+        <v>1632.343299376249</v>
       </c>
       <c r="C39" s="3">
-        <v>44.188406469138847</v>
+        <v>286.22431288587842</v>
       </c>
       <c r="D39" s="3">
-        <v>20.109273900452759</v>
+        <v>46.753164175450337</v>
       </c>
       <c r="E39" s="3">
-        <v>15.679973597032619</v>
+        <v>22.453654707431749</v>
       </c>
       <c r="F39" s="3">
-        <v>12.17154001121</v>
+        <v>11.404361833529739</v>
       </c>
       <c r="G39">
-        <v>151.64312354134739</v>
+        <v>1999.1787929785401</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K39" s="3">
         <v>1</v>
@@ -1946,23 +1946,23 @@
       <c r="A40" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="4">
-        <v>13.471003365595241</v>
-      </c>
-      <c r="C40" s="4">
-        <v>70.913194725987083</v>
-      </c>
-      <c r="D40" s="4">
-        <v>35.26449306582164</v>
-      </c>
-      <c r="E40" s="4">
-        <v>9.6236668463718971</v>
-      </c>
-      <c r="F40" s="4">
-        <v>13.08898501294731</v>
+      <c r="B40" s="3">
+        <v>18.83732939249856</v>
+      </c>
+      <c r="C40" s="3">
+        <v>9.1927851278072552</v>
+      </c>
+      <c r="D40" s="3">
+        <v>11.522767565521351</v>
+      </c>
+      <c r="E40" s="3">
+        <v>19.7978089342309</v>
+      </c>
+      <c r="F40" s="3">
+        <v>11.510567525327501</v>
       </c>
       <c r="G40">
-        <v>142.36134301672311</v>
+        <v>70.861258545385553</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>19</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1</v>
       </c>
       <c r="L40" t="s">
         <v>12</v>
@@ -1985,22 +1985,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="3">
-        <v>419.25586429239121</v>
+        <v>59.49392956351322</v>
       </c>
       <c r="C41" s="3">
-        <v>93.108374174152033</v>
+        <v>44.188406469138847</v>
       </c>
       <c r="D41" s="3">
-        <v>55.818038614211758</v>
+        <v>20.109273900452759</v>
       </c>
       <c r="E41" s="3">
-        <v>23.345176295168251</v>
+        <v>15.679973597032619</v>
       </c>
       <c r="F41" s="3">
-        <v>19.859460049928561</v>
+        <v>12.17154001121</v>
       </c>
       <c r="G41">
-        <v>611.38691342585162</v>
+        <v>151.64312354134739</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -2023,22 +2023,22 @@
         <v>9</v>
       </c>
       <c r="B42" s="3">
-        <v>52.146224884924052</v>
+        <v>419.25586429239121</v>
       </c>
       <c r="C42" s="3">
-        <v>84.225029657533781</v>
+        <v>93.108374174152033</v>
       </c>
       <c r="D42" s="3">
-        <v>92.398370724992972</v>
+        <v>55.818038614211758</v>
       </c>
       <c r="E42" s="3">
-        <v>79.346784178579284</v>
+        <v>23.345176295168251</v>
       </c>
       <c r="F42" s="3">
-        <v>35.398043815896898</v>
+        <v>19.859460049928561</v>
       </c>
       <c r="G42">
-        <v>343.51445326192692</v>
+        <v>611.38691342585162</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K42" s="3">
         <v>1</v>
@@ -2061,22 +2061,22 @@
         <v>9</v>
       </c>
       <c r="B43" s="3">
-        <v>152.8558765166373</v>
+        <v>52.146224884924052</v>
       </c>
       <c r="C43" s="3">
-        <v>120.5143881633942</v>
+        <v>84.225029657533781</v>
       </c>
       <c r="D43" s="3">
-        <v>176.46961330308491</v>
+        <v>92.398370724992972</v>
       </c>
       <c r="E43" s="3">
-        <v>45.565605203606303</v>
+        <v>79.346784178579284</v>
       </c>
       <c r="F43" s="3">
-        <v>49.597633898832619</v>
+        <v>35.398043815896898</v>
       </c>
       <c r="G43">
-        <v>545.00311708555557</v>
+        <v>343.51445326192692</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K43" s="3">
         <v>1</v>
@@ -2099,22 +2099,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="3">
-        <v>1691.6520813896609</v>
+        <v>152.8558765166373</v>
       </c>
       <c r="C44" s="3">
-        <v>260.91709296970163</v>
+        <v>120.5143881633942</v>
       </c>
       <c r="D44" s="3">
-        <v>50.151513297386039</v>
+        <v>176.46961330308491</v>
       </c>
       <c r="E44" s="3">
-        <v>37.041083071956088</v>
+        <v>45.565605203606303</v>
       </c>
       <c r="F44" s="3">
-        <v>121.67459551630451</v>
+        <v>49.597633898832619</v>
       </c>
       <c r="G44">
-        <v>2161.43636624501</v>
+        <v>545.00311708555557</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2137,22 +2137,22 @@
         <v>9</v>
       </c>
       <c r="B45" s="3">
-        <v>117.0321746376358</v>
+        <v>1691.6520813896609</v>
       </c>
       <c r="C45" s="3">
-        <v>144.35195987163681</v>
+        <v>260.91709296970163</v>
       </c>
       <c r="D45" s="3">
-        <v>171.4344858670911</v>
+        <v>50.151513297386039</v>
       </c>
       <c r="E45" s="3">
-        <v>206.96275381042949</v>
+        <v>37.041083071956088</v>
       </c>
       <c r="F45" s="3">
-        <v>150.2313916851804</v>
+        <v>121.67459551630451</v>
       </c>
       <c r="G45">
-        <v>790.01276587197356</v>
+        <v>2161.43636624501</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -2175,22 +2175,22 @@
         <v>9</v>
       </c>
       <c r="B46" s="3">
-        <v>252.45290476072279</v>
+        <v>117.0321746376358</v>
       </c>
       <c r="C46" s="3">
-        <v>408.37982519917807</v>
+        <v>144.35195987163681</v>
       </c>
       <c r="D46" s="3">
-        <v>429.68378937519498</v>
+        <v>171.4344858670911</v>
       </c>
       <c r="E46" s="3">
-        <v>463.66994422841702</v>
+        <v>206.96275381042949</v>
       </c>
       <c r="F46" s="3">
-        <v>233.50217059918251</v>
+        <v>150.2313916851804</v>
       </c>
       <c r="G46">
-        <v>1787.6886341626951</v>
+        <v>790.01276587197356</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K46" s="3">
         <v>1</v>
@@ -2212,23 +2212,23 @@
       <c r="A47" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="4">
-        <v>2590.4869589748541</v>
-      </c>
-      <c r="C47" s="4">
-        <v>169.7207471260628</v>
-      </c>
-      <c r="D47" s="4">
-        <v>104.93377137794511</v>
-      </c>
-      <c r="E47" s="4">
-        <v>187.55771657536741</v>
-      </c>
-      <c r="F47" s="4">
-        <v>377.86311274465407</v>
+      <c r="B47" s="3">
+        <v>252.45290476072279</v>
+      </c>
+      <c r="C47" s="3">
+        <v>408.37982519917807</v>
+      </c>
+      <c r="D47" s="3">
+        <v>429.68378937519498</v>
+      </c>
+      <c r="E47" s="3">
+        <v>463.66994422841702</v>
+      </c>
+      <c r="F47" s="3">
+        <v>233.50217059918251</v>
       </c>
       <c r="G47">
-        <v>3430.5623067988831</v>
+        <v>1787.6886341626951</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2237,18 +2237,18 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>21</v>
-      </c>
-      <c r="K47" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1</v>
       </c>
       <c r="L47" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K51">
-    <sortCondition ref="F2:F51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L47">
+    <sortCondition ref="K2:K47"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
